--- a/data/trans_orig/P1802-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35A9295-35C6-41FB-B8CE-BA75022014DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9881421B-E9AB-4E89-B507-9A9FD66F2DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{971D23C9-CE29-4BFD-BD80-868BEEDF3EC7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCB285CD-2D11-4DF5-BC61-9ADB1246C2D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="332">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>20,51%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>79,49%</t>
   </si>
   <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>74,48%</t>
   </si>
   <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>77,01%</t>
   </si>
   <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>15,52%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>84,48%</t>
   </si>
   <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>82,49%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -195,55 +195,55 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -252,55 +252,55 @@
     <t>18,87%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>20,53%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>81,13%</t>
   </si>
   <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>79,47%</t>
   </si>
   <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -309,742 +309,730 @@
     <t>18,71%</t>
   </si>
   <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>75,63%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>19,02%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>80,98%</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCDDAF0-CFD1-432A-8098-B053826D640F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6DC119-50EE-4922-87C3-FEA68A3FB313}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2987,7 +2975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC49C5BC-2802-438D-9070-261A8BA13E7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B8CE78-AD10-44EF-9587-2F7A7EA0B2E8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3111,13 +3099,13 @@
         <v>81269</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>213</v>
@@ -3126,13 +3114,13 @@
         <v>108119</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>312</v>
@@ -3141,13 +3129,13 @@
         <v>189387</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3150,13 @@
         <v>179029</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>325</v>
@@ -3177,13 +3165,13 @@
         <v>163284</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
@@ -3192,13 +3180,13 @@
         <v>342313</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3254,13 @@
         <v>57179</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -3281,13 +3269,13 @@
         <v>95865</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -3296,13 +3284,13 @@
         <v>153044</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3305,13 @@
         <v>462118</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>585</v>
@@ -3332,13 +3320,13 @@
         <v>455812</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>917</v>
@@ -3347,13 +3335,13 @@
         <v>917930</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3409,13 @@
         <v>72793</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>148</v>
@@ -3436,13 +3424,13 @@
         <v>98008</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
@@ -3451,13 +3439,13 @@
         <v>170801</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3460,13 @@
         <v>249447</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>388</v>
@@ -3487,13 +3475,13 @@
         <v>275276</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>660</v>
@@ -3502,13 +3490,13 @@
         <v>524723</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3564,13 @@
         <v>52783</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -3591,13 +3579,13 @@
         <v>58151</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>155</v>
@@ -3606,13 +3594,13 @@
         <v>110934</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3615,13 @@
         <v>269457</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>496</v>
@@ -3642,13 +3630,13 @@
         <v>370405</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>736</v>
@@ -3657,13 +3645,13 @@
         <v>639862</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3719,13 @@
         <v>25698</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -3746,13 +3734,13 @@
         <v>12680</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -3761,13 +3749,13 @@
         <v>38378</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3770,13 @@
         <v>171050</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>460</v>
@@ -3797,13 +3785,13 @@
         <v>219223</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>707</v>
@@ -3812,13 +3800,13 @@
         <v>390273</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3874,13 @@
         <v>48324</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -3901,10 +3889,10 @@
         <v>55044</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>275</v>
@@ -3916,10 +3904,10 @@
         <v>103369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>277</v>
@@ -3952,13 +3940,13 @@
         <v>220578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>663</v>
@@ -3967,13 +3955,13 @@
         <v>449476</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4029,13 @@
         <v>131678</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>270</v>
@@ -4056,13 +4044,13 @@
         <v>180068</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -4071,10 +4059,10 @@
         <v>311746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>291</v>
@@ -4095,10 +4083,10 @@
         <v>292</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H23" s="7">
         <v>690</v>
@@ -4110,10 +4098,10 @@
         <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>1159</v>
@@ -4122,13 +4110,13 @@
         <v>1118629</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>299</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4184,13 @@
         <v>101772</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -4211,13 +4199,13 @@
         <v>61200</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -4226,13 +4214,13 @@
         <v>162972</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4235,13 @@
         <v>757656</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>977</v>
@@ -4262,13 +4250,13 @@
         <v>806571</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>1692</v>
@@ -4277,13 +4265,13 @@
         <v>1564227</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4339,13 @@
         <v>571495</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>1080</v>
@@ -4366,13 +4354,13 @@
         <v>669136</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>1642</v>
@@ -4381,13 +4369,13 @@
         <v>1240631</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4390,13 @@
         <v>2812151</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H29" s="7">
         <v>4279</v>
@@ -4417,13 +4405,13 @@
         <v>3135283</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M29" s="7">
         <v>7091</v>
@@ -4432,13 +4420,13 @@
         <v>5947434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>335</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1802-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9881421B-E9AB-4E89-B507-9A9FD66F2DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90053021-868C-4E9E-BC47-015132250A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCB285CD-2D11-4DF5-BC61-9ADB1246C2D6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{07BC2EDD-2C9A-46EB-AF5F-7E39CC8AB924}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="332">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="342">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,964 +75,994 @@
     <t>20,51%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>20,87%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
     <t>31,22%</t>
   </si>
   <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>83,89%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6DC119-50EE-4922-87C3-FEA68A3FB313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F8C11A-2FB4-449E-9750-71FA12C18023}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2975,7 +3005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B8CE78-AD10-44EF-9587-2F7A7EA0B2E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5B5CF8-47C5-4C7A-AEF4-95856C0751A2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,13 +3129,13 @@
         <v>81269</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>213</v>
@@ -3114,13 +3144,13 @@
         <v>108119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>312</v>
@@ -3129,13 +3159,13 @@
         <v>189387</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3180,13 @@
         <v>179029</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>325</v>
@@ -3165,13 +3195,13 @@
         <v>163284</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
@@ -3180,13 +3210,13 @@
         <v>342313</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,10 +3284,10 @@
         <v>57179</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>164</v>
@@ -3269,13 +3299,13 @@
         <v>95865</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -3284,13 +3314,13 @@
         <v>153044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3335,13 @@
         <v>462118</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>585</v>
@@ -3320,13 +3350,13 @@
         <v>455812</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>917</v>
@@ -3335,13 +3365,13 @@
         <v>917930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3439,13 @@
         <v>72793</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>148</v>
@@ -3424,13 +3454,13 @@
         <v>98008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
@@ -3439,13 +3469,13 @@
         <v>170801</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3490,13 @@
         <v>249447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>388</v>
@@ -3475,13 +3505,13 @@
         <v>275276</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>660</v>
@@ -3490,13 +3520,13 @@
         <v>524723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3594,13 @@
         <v>52783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -3579,13 +3609,13 @@
         <v>58151</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>155</v>
@@ -3594,13 +3624,13 @@
         <v>110934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3645,13 @@
         <v>269457</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>496</v>
@@ -3630,13 +3660,13 @@
         <v>370405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>736</v>
@@ -3645,13 +3675,13 @@
         <v>639862</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3749,13 @@
         <v>25698</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -3734,13 +3764,13 @@
         <v>12680</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -3749,13 +3779,13 @@
         <v>38378</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3800,13 @@
         <v>171050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>460</v>
@@ -3785,13 +3815,13 @@
         <v>219223</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>707</v>
@@ -3800,13 +3830,13 @@
         <v>390273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3904,13 @@
         <v>48324</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -3889,13 +3919,13 @@
         <v>55044</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>168</v>
@@ -3904,13 +3934,13 @@
         <v>103369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3955,13 @@
         <v>228899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>358</v>
@@ -3940,13 +3970,13 @@
         <v>220578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>663</v>
@@ -3955,13 +3985,13 @@
         <v>449476</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4059,13 @@
         <v>131678</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>270</v>
@@ -4044,13 +4074,13 @@
         <v>180068</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -4059,13 +4089,13 @@
         <v>311746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4110,13 @@
         <v>494494</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>690</v>
@@ -4095,13 +4125,13 @@
         <v>624135</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>28</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>1159</v>
@@ -4110,13 +4140,13 @@
         <v>1118629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4214,13 @@
         <v>101772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -4199,13 +4229,13 @@
         <v>61200</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -4214,13 +4244,13 @@
         <v>162972</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4265,13 @@
         <v>757656</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>977</v>
@@ -4250,13 +4280,13 @@
         <v>806571</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>1692</v>
@@ -4265,13 +4295,13 @@
         <v>1564227</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4369,13 @@
         <v>571495</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
         <v>1080</v>
@@ -4354,13 +4384,13 @@
         <v>669136</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
         <v>1642</v>
@@ -4369,13 +4399,13 @@
         <v>1240631</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>36</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4420,13 @@
         <v>2812151</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>4279</v>
@@ -4405,13 +4435,13 @@
         <v>3135283</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>7091</v>
@@ -4420,13 +4450,13 @@
         <v>5947434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>46</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1802-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D36708-A439-490F-9D00-B1A6EAA08F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54AFF8FD-890C-4B30-A532-666AAA31AB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A89D09B-5D3D-4EA9-A9C0-4AB43AB91A9B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DD97C615-DAF5-4D3C-BF57-06B18806195E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="436">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -257,7 +257,16 @@
     <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -272,39 +281,51 @@
     <t>0,6%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>99,85%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
@@ -830,283 +851,280 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>13,06%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -1115,148 +1133,160 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1265,58 +1295,58 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59083CBD-5F76-494D-8FBF-4E9913EB5DE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10225C2-B5F8-4227-BFA2-830209A26656}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3497,7 +3527,7 @@
         <v>3214</v>
       </c>
       <c r="D36" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>11</v>
@@ -3512,7 +3542,7 @@
         <v>3297</v>
       </c>
       <c r="I36" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>11</v>
@@ -3527,7 +3557,7 @@
         <v>6511</v>
       </c>
       <c r="N36" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>11</v>
@@ -3650,7 +3680,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -3665,7 +3695,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -3680,7 +3710,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
@@ -3718,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEC369A-38E8-4600-A8E2-74CD1834C5AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3725696A-691B-451B-ACB2-FA862DC2E698}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3836,43 +3866,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D4" s="7">
+        <v>294738</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I4" s="7">
+        <v>287245</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N4" s="7">
+        <v>581983</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,41 +3919,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,41 +3970,47 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,43 +4019,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,7 +4096,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -4096,7 +4150,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4147,7 +4201,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4233,7 +4287,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -4248,7 +4302,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -4287,7 +4341,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4302,7 +4356,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4338,7 +4392,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4353,7 +4407,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4430,46 +4484,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D16" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I16" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N16" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4493,7 +4547,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4508,7 +4562,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4523,7 +4577,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,7 +4598,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4559,7 +4613,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4574,7 +4628,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,10 +4637,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4598,10 +4652,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4613,10 +4667,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -4645,7 +4699,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -4660,7 +4714,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -4699,7 +4753,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4714,7 +4768,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4750,7 +4804,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4765,7 +4819,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4851,7 +4905,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -4905,7 +4959,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4956,7 +5010,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5087,7 +5141,7 @@
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5141,7 +5195,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,7 +5246,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,7 +5317,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -5278,7 +5332,7 @@
         <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -5317,7 +5371,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5332,7 +5386,7 @@
         <v>18</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -5368,7 +5422,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5383,7 +5437,7 @@
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5684,7 +5738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2B749F-0180-4E9E-ADB9-3F2662C18812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA45349-3021-448C-8AEE-148D2AF19B5B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5701,7 +5755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5829,7 +5883,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5844,7 +5898,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5913,13 @@
         <v>60237</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -5874,13 +5928,13 @@
         <v>73686</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>127</v>
@@ -5889,13 +5943,13 @@
         <v>133922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5964,13 @@
         <v>233524</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7">
         <v>206</v>
@@ -5925,13 +5979,13 @@
         <v>215017</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7">
         <v>416</v>
@@ -5940,13 +5994,13 @@
         <v>448542</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +6074,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6035,7 +6089,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6065,13 +6119,13 @@
         <v>78023</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -6080,13 +6134,13 @@
         <v>101589</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -6095,13 +6149,13 @@
         <v>179612</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6170,13 @@
         <v>424552</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>391</v>
@@ -6131,13 +6185,13 @@
         <v>421495</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>795</v>
@@ -6146,13 +6200,13 @@
         <v>846047</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,7 +6295,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6256,7 +6310,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6325,13 @@
         <v>23845</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -6286,13 +6340,13 @@
         <v>33364</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -6301,13 +6355,13 @@
         <v>57209</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6376,13 @@
         <v>294720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -6337,13 +6391,13 @@
         <v>302945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>610</v>
@@ -6352,13 +6406,13 @@
         <v>597665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,7 +6486,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6462,7 +6516,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6531,13 @@
         <v>69817</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -6492,13 +6546,13 @@
         <v>85676</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -6507,13 +6561,13 @@
         <v>155493</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6582,13 @@
         <v>300147</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H18" s="7">
         <v>278</v>
@@ -6543,13 +6597,13 @@
         <v>301607</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>568</v>
@@ -6558,13 +6612,13 @@
         <v>601754</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,7 +6692,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6653,7 +6707,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6668,7 +6722,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6737,13 @@
         <v>39521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -6698,13 +6752,13 @@
         <v>40141</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M21" s="7">
         <v>79</v>
@@ -6713,13 +6767,13 @@
         <v>79662</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,13 +6788,13 @@
         <v>171700</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -6749,13 +6803,13 @@
         <v>178446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M22" s="7">
         <v>356</v>
@@ -6764,13 +6818,13 @@
         <v>350146</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,7 +6898,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6859,7 +6913,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6889,13 +6943,13 @@
         <v>35512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -6904,13 +6958,13 @@
         <v>55852</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -6919,13 +6973,13 @@
         <v>91364</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6994,13 @@
         <v>227611</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -6955,13 +7009,13 @@
         <v>217263</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>434</v>
@@ -6970,13 +7024,13 @@
         <v>444874</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,7 +7104,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7095,13 +7149,13 @@
         <v>67449</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H29" s="7">
         <v>102</v>
@@ -7110,13 +7164,13 @@
         <v>114640</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M29" s="7">
         <v>163</v>
@@ -7125,13 +7179,13 @@
         <v>182089</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7200,13 @@
         <v>589109</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H30" s="7">
         <v>544</v>
@@ -7161,13 +7215,13 @@
         <v>576654</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M30" s="7">
         <v>1063</v>
@@ -7176,13 +7230,13 @@
         <v>1165763</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,7 +7325,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7301,13 +7355,13 @@
         <v>113203</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="H33" s="7">
         <v>146</v>
@@ -7316,13 +7370,13 @@
         <v>164313</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M33" s="7">
         <v>255</v>
@@ -7331,13 +7385,13 @@
         <v>277516</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7406,13 @@
         <v>665380</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H34" s="7">
         <v>609</v>
@@ -7367,13 +7421,13 @@
         <v>661854</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M34" s="7">
         <v>1250</v>
@@ -7382,13 +7436,13 @@
         <v>1327234</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7561,13 @@
         <v>487606</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>617</v>
@@ -7522,13 +7576,13 @@
         <v>669261</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>1077</v>
@@ -7537,13 +7591,13 @@
         <v>1156867</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7612,13 @@
         <v>2906744</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H38" s="7">
         <v>2721</v>
@@ -7573,13 +7627,13 @@
         <v>2875281</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="M38" s="7">
         <v>5492</v>
@@ -7588,13 +7642,13 @@
         <v>5782025</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,7 +7728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702D16B6-5918-4A2F-A740-D1E23AEFB41D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8A45B2-AD9E-4A68-951F-CBB66D5D3159}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7691,7 +7745,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7804,7 +7858,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7834,7 +7888,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,46 +7900,46 @@
         <v>99</v>
       </c>
       <c r="D5" s="7">
-        <v>81269</v>
+        <v>94259</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>213</v>
       </c>
       <c r="I5" s="7">
-        <v>108119</v>
+        <v>113900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>312</v>
       </c>
       <c r="N5" s="7">
-        <v>189387</v>
+        <v>208158</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,46 +7951,46 @@
         <v>232</v>
       </c>
       <c r="D6" s="7">
-        <v>179029</v>
+        <v>217184</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H6" s="7">
         <v>325</v>
       </c>
       <c r="I6" s="7">
-        <v>163284</v>
+        <v>175735</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M6" s="7">
         <v>557</v>
       </c>
       <c r="N6" s="7">
-        <v>342313</v>
+        <v>392919</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,7 +8002,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -7963,7 +8017,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -7978,7 +8032,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -8025,7 +8079,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8040,7 +8094,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,46 +8106,46 @@
         <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>57179</v>
+        <v>55027</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H9" s="7">
         <v>128</v>
       </c>
       <c r="I9" s="7">
-        <v>95865</v>
+        <v>88648</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="M9" s="7">
         <v>178</v>
       </c>
       <c r="N9" s="7">
-        <v>153044</v>
+        <v>143675</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,46 +8157,46 @@
         <v>332</v>
       </c>
       <c r="D10" s="7">
-        <v>462118</v>
+        <v>463363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
         <v>585</v>
       </c>
       <c r="I10" s="7">
-        <v>455812</v>
+        <v>423671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
         <v>917</v>
       </c>
       <c r="N10" s="7">
-        <v>917930</v>
+        <v>887034</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,7 +8208,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -8169,7 +8223,7 @@
         <v>713</v>
       </c>
       <c r="I11" s="7">
-        <v>551677</v>
+        <v>512319</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -8184,7 +8238,7 @@
         <v>1095</v>
       </c>
       <c r="N11" s="7">
-        <v>1070974</v>
+        <v>1030709</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -8246,7 +8300,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,46 +8312,46 @@
         <v>88</v>
       </c>
       <c r="D13" s="7">
-        <v>72793</v>
+        <v>70198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
       </c>
       <c r="I13" s="7">
-        <v>98008</v>
+        <v>91548</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M13" s="7">
         <v>236</v>
       </c>
       <c r="N13" s="7">
-        <v>170801</v>
+        <v>161746</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,46 +8363,46 @@
         <v>272</v>
       </c>
       <c r="D14" s="7">
-        <v>249447</v>
+        <v>245852</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
         <v>388</v>
       </c>
       <c r="I14" s="7">
-        <v>275276</v>
+        <v>257580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>660</v>
       </c>
       <c r="N14" s="7">
-        <v>524723</v>
+        <v>503432</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8360,7 +8414,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -8375,7 +8429,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -8390,7 +8444,7 @@
         <v>896</v>
       </c>
       <c r="N15" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -8422,7 +8476,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8452,7 +8506,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8464,46 +8518,46 @@
         <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>52783</v>
+        <v>51470</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
       </c>
       <c r="I17" s="7">
-        <v>58151</v>
+        <v>53820</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>155</v>
       </c>
       <c r="N17" s="7">
-        <v>110934</v>
+        <v>105290</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8515,46 +8569,46 @@
         <v>240</v>
       </c>
       <c r="D18" s="7">
-        <v>269457</v>
+        <v>261087</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H18" s="7">
         <v>496</v>
       </c>
       <c r="I18" s="7">
-        <v>370405</v>
+        <v>421898</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>331</v>
+        <v>193</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M18" s="7">
         <v>736</v>
       </c>
       <c r="N18" s="7">
-        <v>639862</v>
+        <v>682984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8566,7 +8620,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -8581,7 +8635,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -8596,7 +8650,7 @@
         <v>891</v>
       </c>
       <c r="N19" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -8628,7 +8682,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8643,7 +8697,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8658,7 +8712,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8670,46 +8724,46 @@
         <v>32</v>
       </c>
       <c r="D21" s="7">
-        <v>25698</v>
+        <v>23095</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
       </c>
       <c r="I21" s="7">
-        <v>12680</v>
+        <v>11669</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M21" s="7">
         <v>64</v>
       </c>
       <c r="N21" s="7">
-        <v>38378</v>
+        <v>34764</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8721,46 +8775,46 @@
         <v>247</v>
       </c>
       <c r="D22" s="7">
-        <v>171050</v>
+        <v>155647</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H22" s="7">
         <v>460</v>
       </c>
       <c r="I22" s="7">
-        <v>219223</v>
+        <v>196987</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="M22" s="7">
         <v>707</v>
       </c>
       <c r="N22" s="7">
-        <v>390273</v>
+        <v>352634</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,7 +8826,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -8787,7 +8841,7 @@
         <v>492</v>
       </c>
       <c r="I23" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -8802,7 +8856,7 @@
         <v>771</v>
       </c>
       <c r="N23" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -8834,7 +8888,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>355</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8849,7 +8903,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8864,7 +8918,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8876,46 +8930,46 @@
         <v>66</v>
       </c>
       <c r="D25" s="7">
-        <v>48324</v>
+        <v>46764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H25" s="7">
         <v>102</v>
       </c>
       <c r="I25" s="7">
-        <v>55044</v>
+        <v>51008</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>367</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>368</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
       </c>
       <c r="N25" s="7">
-        <v>103369</v>
+        <v>97772</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8927,46 +8981,46 @@
         <v>305</v>
       </c>
       <c r="D26" s="7">
-        <v>228899</v>
+        <v>222872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H26" s="7">
         <v>358</v>
       </c>
       <c r="I26" s="7">
-        <v>220578</v>
+        <v>206048</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>220</v>
+        <v>376</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>378</v>
       </c>
       <c r="M26" s="7">
         <v>663</v>
       </c>
       <c r="N26" s="7">
-        <v>449476</v>
+        <v>428920</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8978,7 +9032,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -8993,7 +9047,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -9008,7 +9062,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -9070,7 +9124,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9082,46 +9136,46 @@
         <v>128</v>
       </c>
       <c r="D29" s="7">
-        <v>131678</v>
+        <v>128316</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="H29" s="7">
         <v>270</v>
       </c>
       <c r="I29" s="7">
-        <v>180068</v>
+        <v>167011</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="M29" s="7">
         <v>398</v>
       </c>
       <c r="N29" s="7">
-        <v>311746</v>
+        <v>295328</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9133,46 +9187,46 @@
         <v>469</v>
       </c>
       <c r="D30" s="7">
-        <v>494494</v>
+        <v>494504</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H30" s="7">
         <v>690</v>
       </c>
       <c r="I30" s="7">
-        <v>624135</v>
+        <v>682254</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="M30" s="7">
         <v>1159</v>
       </c>
       <c r="N30" s="7">
-        <v>1118629</v>
+        <v>1176756</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9184,7 +9238,7 @@
         <v>597</v>
       </c>
       <c r="D31" s="7">
-        <v>626172</v>
+        <v>622820</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>13</v>
@@ -9199,7 +9253,7 @@
         <v>960</v>
       </c>
       <c r="I31" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>13</v>
@@ -9214,7 +9268,7 @@
         <v>1557</v>
       </c>
       <c r="N31" s="7">
-        <v>1430375</v>
+        <v>1472084</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>13</v>
@@ -9246,7 +9300,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9261,7 +9315,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9276,7 +9330,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,46 +9342,46 @@
         <v>47</v>
       </c>
       <c r="D33" s="7">
-        <v>101772</v>
+        <v>287283</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="H33" s="7">
         <v>84</v>
       </c>
       <c r="I33" s="7">
-        <v>61200</v>
+        <v>51165</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>391</v>
+        <v>141</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="M33" s="7">
         <v>131</v>
       </c>
       <c r="N33" s="7">
-        <v>162972</v>
+        <v>338448</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9339,46 +9393,46 @@
         <v>715</v>
       </c>
       <c r="D34" s="7">
-        <v>757656</v>
+        <v>641437</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="H34" s="7">
         <v>977</v>
       </c>
       <c r="I34" s="7">
-        <v>806571</v>
+        <v>666016</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="M34" s="7">
         <v>1692</v>
       </c>
       <c r="N34" s="7">
-        <v>1564227</v>
+        <v>1307453</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9390,7 +9444,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>13</v>
@@ -9405,7 +9459,7 @@
         <v>1061</v>
       </c>
       <c r="I35" s="7">
-        <v>867771</v>
+        <v>717181</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>13</v>
@@ -9420,7 +9474,7 @@
         <v>1823</v>
       </c>
       <c r="N35" s="7">
-        <v>1727199</v>
+        <v>1645901</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>13</v>
@@ -9467,7 +9521,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9482,7 +9536,7 @@
         <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,46 +9548,46 @@
         <v>562</v>
       </c>
       <c r="D37" s="7">
-        <v>571495</v>
+        <v>756412</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H37" s="7">
         <v>1080</v>
       </c>
       <c r="I37" s="7">
-        <v>669136</v>
+        <v>628769</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="M37" s="7">
         <v>1642</v>
       </c>
       <c r="N37" s="7">
-        <v>1240631</v>
+        <v>1385181</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9545,46 +9599,46 @@
         <v>2812</v>
       </c>
       <c r="D38" s="7">
-        <v>2812151</v>
+        <v>2701945</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="H38" s="7">
         <v>4279</v>
       </c>
       <c r="I38" s="7">
-        <v>3135283</v>
+        <v>3030187</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="M38" s="7">
         <v>7091</v>
       </c>
       <c r="N38" s="7">
-        <v>5947434</v>
+        <v>5732132</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9596,7 +9650,7 @@
         <v>3374</v>
       </c>
       <c r="D39" s="7">
-        <v>3383646</v>
+        <v>3458357</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -9611,7 +9665,7 @@
         <v>5359</v>
       </c>
       <c r="I39" s="7">
-        <v>3804419</v>
+        <v>3658956</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -9626,7 +9680,7 @@
         <v>8733</v>
       </c>
       <c r="N39" s="7">
-        <v>7188065</v>
+        <v>7117313</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
